--- a/Washing Machine Sizing Calculations.xlsx
+++ b/Washing Machine Sizing Calculations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\Documents\Repositories\Microgravity-Press-Washing-Machine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64ECBDA-24D4-43F7-B372-277D944643D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164FC8EC-40C8-44D1-842A-4A70B3F28F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Wash Chamber Diameter</t>
   </si>
@@ -47,10 +47,16 @@
     <t>Base Thickness</t>
   </si>
   <si>
-    <t>Designed Capacity</t>
-  </si>
-  <si>
-    <t>Wash Chamber Characteristics</t>
+    <t>Designed Fluid Capacity</t>
+  </si>
+  <si>
+    <t>Maximized</t>
+  </si>
+  <si>
+    <t>Reasoning</t>
+  </si>
+  <si>
+    <t>Washing Machine Specs</t>
   </si>
 </sst>
 </file>
@@ -368,38 +374,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D4:D15"/>
+  <dimension ref="D4:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="4:4" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
         <v>2</v>
       </c>

--- a/Washing Machine Sizing Calculations.xlsx
+++ b/Washing Machine Sizing Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\Documents\Repositories\Microgravity-Press-Washing-Machine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164FC8EC-40C8-44D1-842A-4A70B3F28F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7A0A78-C35C-4F85-B3D0-8E7F88A2371B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Wash Chamber Diameter</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Piston Shaft Diameter</t>
   </si>
   <si>
-    <t>Base Thickness</t>
-  </si>
-  <si>
     <t>Designed Fluid Capacity</t>
   </si>
   <si>
@@ -57,6 +54,15 @@
   </si>
   <si>
     <t>Washing Machine Specs</t>
+  </si>
+  <si>
+    <t>Washing Machine Constraints</t>
+  </si>
+  <si>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <t>Design Challenges</t>
   </si>
 </sst>
 </file>
@@ -374,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D4:F15"/>
+  <dimension ref="D5:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -386,37 +392,47 @@
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D4" t="s">
+    <row r="5" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="F5" t="s">
+    <row r="9" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D6" t="s">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D7" t="s">
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D8" t="s">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D21" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D15" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Washing Machine Sizing Calculations.xlsx
+++ b/Washing Machine Sizing Calculations.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\Documents\Repositories\Microgravity-Press-Washing-Machine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7A0A78-C35C-4F85-B3D0-8E7F88A2371B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A17698E-389A-42A4-B281-63A170EDF0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Preliminary Statics" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,14 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Wash Chamber Diameter</t>
   </si>
   <si>
-    <t>Piston Shaft Diameter</t>
-  </si>
-  <si>
     <t>Designed Fluid Capacity</t>
   </si>
   <si>
@@ -53,16 +51,88 @@
     <t>Reasoning</t>
   </si>
   <si>
-    <t>Washing Machine Specs</t>
-  </si>
-  <si>
-    <t>Washing Machine Constraints</t>
-  </si>
-  <si>
-    <t>Criteria</t>
-  </si>
-  <si>
-    <t>Design Challenges</t>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Force Equivilant Force Applied</t>
+  </si>
+  <si>
+    <t>Additional for Testing Capacity</t>
+  </si>
+  <si>
+    <t>Factor of Safety</t>
+  </si>
+  <si>
+    <t>lbf</t>
+  </si>
+  <si>
+    <t>Total Force Application</t>
+  </si>
+  <si>
+    <t>General Constants</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>Principle Washing Machine Characteristics</t>
+  </si>
+  <si>
+    <t>Dimensions that will inform</t>
+  </si>
+  <si>
+    <t>Designed Force Application</t>
+  </si>
+  <si>
+    <t>Inches</t>
+  </si>
+  <si>
+    <t>mL</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Style Guide</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Referenced from list of principal values</t>
+  </si>
+  <si>
+    <t>Unsure/manual input to be changed</t>
+  </si>
+  <si>
+    <t>Manual input sourced from parts list</t>
+  </si>
+  <si>
+    <t>Calculated value of interest/referenced for other calculations</t>
+  </si>
+  <si>
+    <t>Calculated/intermeidate value referenced in slide</t>
+  </si>
+  <si>
+    <t>The higher the fluid capacity, the larger variety of clothing types that can be accomodated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reasonable chamber diameter, but could be picked in a more informed manner. All data pertaining to the wash viability was done using 4" PVC Pipe, so </t>
+  </si>
+  <si>
+    <t>General Specifications Derived from Key Values</t>
+  </si>
+  <si>
+    <t>Force Application Surface Area</t>
+  </si>
+  <si>
+    <t>Pressure Applied by Acting Piston</t>
+  </si>
+  <si>
+    <t>600 lbf equivilant force found to compress clothing enough that folds of fabric collapses into compact structure which facilitates water to flow through the fibers of the clothing item rather than flowing around it. This was found to fascillitate greater washing capability.</t>
   </si>
 </sst>
 </file>
@@ -78,12 +148,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -98,8 +198,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,59 +485,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D5:F21"/>
+  <dimension ref="D23:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D5:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="24.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.3984375" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D5" t="s">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>600</v>
+      </c>
+      <c r="G28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34">
+        <f>PI()*(E27/2)^2</f>
+        <v>12.566370614359172</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <f>E28/E34</f>
+        <v>47.7464829275686</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D45" s="1"/>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D46" s="2"/>
+      <c r="E46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D47" s="3"/>
+      <c r="E47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D48" s="4"/>
+      <c r="E48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D49" s="5"/>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72D662D-1DD5-42ED-9C8F-20E55F92E359}">
+  <dimension ref="C4:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="25.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>600</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D13" t="s">
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="F18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D21" t="s">
-        <v>1</v>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <f>D5+D6</f>
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/Washing Machine Sizing Calculations.xlsx
+++ b/Washing Machine Sizing Calculations.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\Documents\Repositories\Microgravity-Press-Washing-Machine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A17698E-389A-42A4-B281-63A170EDF0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6467E2C-7DA0-4DD6-9F1B-9B56B1D6DB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foundational Information" sheetId="1" r:id="rId1"/>
     <sheet name="Preliminary Statics" sheetId="2" r:id="rId2"/>
+    <sheet name="Allowable Piston Travel" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>Wash Chamber Diameter</t>
   </si>
@@ -72,21 +73,9 @@
     <t>General Constants</t>
   </si>
   <si>
-    <t>Dimensions</t>
-  </si>
-  <si>
-    <t>Principle Washing Machine Characteristics</t>
-  </si>
-  <si>
-    <t>Dimensions that will inform</t>
-  </si>
-  <si>
     <t>Designed Force Application</t>
   </si>
   <si>
-    <t>Inches</t>
-  </si>
-  <si>
     <t>mL</t>
   </si>
   <si>
@@ -123,9 +112,6 @@
     <t xml:space="preserve">Reasonable chamber diameter, but could be picked in a more informed manner. All data pertaining to the wash viability was done using 4" PVC Pipe, so </t>
   </si>
   <si>
-    <t>General Specifications Derived from Key Values</t>
-  </si>
-  <si>
     <t>Force Application Surface Area</t>
   </si>
   <si>
@@ -133,6 +119,93 @@
   </si>
   <si>
     <t>600 lbf equivilant force found to compress clothing enough that folds of fabric collapses into compact structure which facilitates water to flow through the fibers of the clothing item rather than flowing around it. This was found to fascillitate greater washing capability.</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Step #</t>
+  </si>
+  <si>
+    <t>From known forca application, and general design layout, determine loads experienced by structural members and drive system</t>
+  </si>
+  <si>
+    <t>From member dimensions of hardware in line with the acting piston, determine allowable piston travel and chamber size</t>
+  </si>
+  <si>
+    <t>Use dimensions to create CAD model, check parts usability</t>
+  </si>
+  <si>
+    <t>Locate products to be used for Mechanical assembly such as lead screws, belts, and other components</t>
+  </si>
+  <si>
+    <t>Determine required frame and other structural member dimensions based on loading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From </t>
+  </si>
+  <si>
+    <t>Double EXPRESS Locker Width</t>
+  </si>
+  <si>
+    <t>Double EXPRESS Locker Height</t>
+  </si>
+  <si>
+    <t>Designed Max Width</t>
+  </si>
+  <si>
+    <t>Designed Max Breadth</t>
+  </si>
+  <si>
+    <t>Designed Max Height</t>
+  </si>
+  <si>
+    <t>Double EXPRESS Locker Breadth</t>
+  </si>
+  <si>
+    <t>Important Values not used in Calculations</t>
+  </si>
+  <si>
+    <t>in^2</t>
+  </si>
+  <si>
+    <t>Psi</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Fundamental Values to Inform Washing Machine Characteristcs</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Name of Value</t>
+  </si>
+  <si>
+    <t>F.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account for </t>
   </si>
 </sst>
 </file>
@@ -220,6 +293,62 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>509588</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28893</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62856E43-A84E-D9B2-3115-564E71CA4489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3219" t="11851" r="50625"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667626" y="5191125"/>
+          <a:ext cx="2110105" cy="2266950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D23:G49"/>
+  <dimension ref="D14:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D5:D12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -497,42 +626,79 @@
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="E25" t="s">
-        <v>11</v>
       </c>
       <c r="F25" t="s">
         <v>4</v>
       </c>
       <c r="G25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
         <v>0</v>
       </c>
@@ -540,104 +706,255 @@
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+      <c r="H27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E28">
         <v>600</v>
       </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
       <c r="G28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34">
+        <v>49</v>
+      </c>
+      <c r="H28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29">
+        <f>E40/2</f>
+        <v>8.67</v>
+      </c>
+      <c r="F29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30">
+        <f>E41/2</f>
+        <v>10.55</v>
+      </c>
+      <c r="F30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31">
+        <f>E42</f>
+        <v>21.45</v>
+      </c>
+      <c r="F31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38">
         <f>PI()*(E27/2)^2</f>
         <v>12.566370614359172</v>
       </c>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D35" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35">
-        <f>E28/E34</f>
+      <c r="F38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39">
+        <f>E28/E38</f>
         <v>47.7464829275686</v>
       </c>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D38" t="s">
+      <c r="F39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40">
+        <v>17.34</v>
+      </c>
+      <c r="F40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>21.1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42">
+        <v>21.45</v>
+      </c>
+      <c r="F42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D47" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D40" t="s">
+    <row r="48" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D49" t="s">
         <v>7</v>
       </c>
-      <c r="E40">
+      <c r="E49">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D43" t="s">
+      <c r="F49" t="s">
+        <v>45</v>
+      </c>
+      <c r="G49" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D54" s="1"/>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D55" s="2"/>
+      <c r="E55" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D44" t="s">
+    <row r="56" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D56" s="3"/>
+      <c r="E56" t="s">
         <v>19</v>
       </c>
-      <c r="E44" t="s">
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D57" s="4"/>
+      <c r="E57" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D45" s="1"/>
-      <c r="E45" t="s">
+    <row r="58" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D58" s="5"/>
+      <c r="E58" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D46" s="2"/>
-      <c r="E46" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D47" s="3"/>
-      <c r="E47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D48" s="4"/>
-      <c r="E48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D49" s="5"/>
-      <c r="E49" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -645,7 +962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72D662D-1DD5-42ED-9C8F-20E55F92E359}">
   <dimension ref="C4:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -656,7 +973,7 @@
   <sheetData>
     <row r="4" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -691,6 +1008,26 @@
       <c r="D7">
         <f>D5+D6</f>
         <v>800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BD5B95-2334-4B4C-B562-C25DB0F54F68}">
+  <dimension ref="C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Washing Machine Sizing Calculations.xlsx
+++ b/Washing Machine Sizing Calculations.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\Documents\Repositories\Microgravity-Press-Washing-Machine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6467E2C-7DA0-4DD6-9F1B-9B56B1D6DB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC94A70-6CE6-4DC4-B6C1-3DC50C195AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foundational Information" sheetId="1" r:id="rId1"/>
-    <sheet name="Preliminary Statics" sheetId="2" r:id="rId2"/>
-    <sheet name="Allowable Piston Travel" sheetId="3" r:id="rId3"/>
+    <sheet name="Statics and Force Application" sheetId="2" r:id="rId2"/>
+    <sheet name="Chamber and Piston Attributes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>Wash Chamber Diameter</t>
   </si>
@@ -91,15 +91,9 @@
     <t>Definition</t>
   </si>
   <si>
-    <t>Referenced from list of principal values</t>
-  </si>
-  <si>
     <t>Unsure/manual input to be changed</t>
   </si>
   <si>
-    <t>Manual input sourced from parts list</t>
-  </si>
-  <si>
     <t>Calculated value of interest/referenced for other calculations</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
     <t>Step #</t>
   </si>
   <si>
-    <t>From known forca application, and general design layout, determine loads experienced by structural members and drive system</t>
-  </si>
-  <si>
     <t>From member dimensions of hardware in line with the acting piston, determine allowable piston travel and chamber size</t>
   </si>
   <si>
@@ -206,6 +197,18 @@
   </si>
   <si>
     <t xml:space="preserve">Account for </t>
+  </si>
+  <si>
+    <t>Optimal Max Required Load for Washing</t>
+  </si>
+  <si>
+    <t>Piston Travel</t>
+  </si>
+  <si>
+    <t>Manual input sourced from parts list, experimental work, or other research</t>
+  </si>
+  <si>
+    <t>From known force application, and general design layout, determine loads experienced by structural members and drive system</t>
   </si>
 </sst>
 </file>
@@ -299,16 +302,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>509588</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28893</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2167255</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -338,7 +341,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7667626" y="5191125"/>
+          <a:off x="2000250" y="10944225"/>
           <a:ext cx="2110105" cy="2266950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -616,24 +619,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D14:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="27.3984375" customWidth="1"/>
+    <col min="4" max="4" width="33.19921875" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="14" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="4:5" x14ac:dyDescent="0.45">
@@ -641,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.45">
@@ -649,7 +652,7 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.45">
@@ -657,7 +660,7 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.45">
@@ -665,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.45">
@@ -673,17 +676,17 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
@@ -692,7 +695,7 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H25" t="s">
         <v>3</v>
@@ -702,89 +705,95 @@
       <c r="D27" t="s">
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
         <v>11</v>
       </c>
-      <c r="E28">
-        <v>600</v>
+      <c r="E28" s="4">
+        <f>'Statics and Force Application'!D15</f>
+        <v>800</v>
       </c>
       <c r="F28" t="s">
         <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29">
+        <v>34</v>
+      </c>
+      <c r="E29" s="4">
         <f>E40/2</f>
         <v>8.67</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30">
+        <v>35</v>
+      </c>
+      <c r="E30" s="4">
         <f>E41/2</f>
         <v>10.55</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31">
+        <v>36</v>
+      </c>
+      <c r="E31" s="4">
         <f>E42</f>
         <v>21.45</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D32" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D37" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E37" t="s">
         <v>13</v>
@@ -793,7 +802,7 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H37" t="s">
         <v>3</v>
@@ -801,59 +810,59 @@
     </row>
     <row r="38" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E38">
         <f>PI()*(E27/2)^2</f>
         <v>12.566370614359172</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E39">
         <f>E28/E38</f>
-        <v>47.7464829275686</v>
+        <v>63.661977236758133</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E40">
         <v>17.34</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E41">
         <v>21.1</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E42">
         <v>21.45</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="4:8" x14ac:dyDescent="0.45">
@@ -867,7 +876,18 @@
         <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="3">
+        <v>600</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="4:8" x14ac:dyDescent="0.45">
@@ -877,7 +897,7 @@
     </row>
     <row r="48" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D48" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E48" t="s">
         <v>13</v>
@@ -886,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H48" t="s">
         <v>3</v>
@@ -900,13 +920,13 @@
         <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H49" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.45">
@@ -924,32 +944,29 @@
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D54" s="1"/>
-      <c r="E54" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D55" s="2"/>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D56" s="3"/>
       <c r="E56" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D57" s="4"/>
       <c r="E57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D58" s="5"/>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -960,10 +977,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72D662D-1DD5-42ED-9C8F-20E55F92E359}">
-  <dimension ref="C4:E7"/>
+  <dimension ref="C12:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -971,43 +988,46 @@
     <col min="3" max="3" width="25.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D4" t="s">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="D13">
         <v>600</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C6" t="s">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="D14">
         <v>200</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C7" t="s">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D7">
-        <f>D5+D6</f>
+      <c r="D15">
+        <f>D13+D14</f>
         <v>800</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1019,7 +1039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BD5B95-2334-4B4C-B562-C25DB0F54F68}">
   <dimension ref="C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1027,7 +1047,7 @@
   <sheetData>
     <row r="4" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Washing Machine Sizing Calculations.xlsx
+++ b/Washing Machine Sizing Calculations.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\Documents\Repositories\Microgravity-Press-Washing-Machine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC94A70-6CE6-4DC4-B6C1-3DC50C195AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4819718-0A11-4173-9AD4-B8F27AADE1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foundational Information" sheetId="1" r:id="rId1"/>
     <sheet name="Statics and Force Application" sheetId="2" r:id="rId2"/>
-    <sheet name="Chamber and Piston Attributes" sheetId="3" r:id="rId3"/>
+    <sheet name="Structural Member Design" sheetId="4" r:id="rId3"/>
+    <sheet name="Chamber and Piston Attributes" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
   <si>
     <t>Wash Chamber Diameter</t>
   </si>
@@ -55,21 +56,12 @@
     <t>Units</t>
   </si>
   <si>
-    <t>Force Equivilant Force Applied</t>
-  </si>
-  <si>
-    <t>Additional for Testing Capacity</t>
-  </si>
-  <si>
     <t>Factor of Safety</t>
   </si>
   <si>
     <t>lbf</t>
   </si>
   <si>
-    <t>Total Force Application</t>
-  </si>
-  <si>
     <t>General Constants</t>
   </si>
   <si>
@@ -103,9 +95,6 @@
     <t>The higher the fluid capacity, the larger variety of clothing types that can be accomodated</t>
   </si>
   <si>
-    <t xml:space="preserve">Reasonable chamber diameter, but could be picked in a more informed manner. All data pertaining to the wash viability was done using 4" PVC Pipe, so </t>
-  </si>
-  <si>
     <t>Force Application Surface Area</t>
   </si>
   <si>
@@ -121,21 +110,6 @@
     <t>Step #</t>
   </si>
   <si>
-    <t>From member dimensions of hardware in line with the acting piston, determine allowable piston travel and chamber size</t>
-  </si>
-  <si>
-    <t>Use dimensions to create CAD model, check parts usability</t>
-  </si>
-  <si>
-    <t>Locate products to be used for Mechanical assembly such as lead screws, belts, and other components</t>
-  </si>
-  <si>
-    <t>Determine required frame and other structural member dimensions based on loading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From </t>
-  </si>
-  <si>
     <t>Double EXPRESS Locker Width</t>
   </si>
   <si>
@@ -154,9 +128,6 @@
     <t>Double EXPRESS Locker Breadth</t>
   </si>
   <si>
-    <t>Important Values not used in Calculations</t>
-  </si>
-  <si>
     <t>in^2</t>
   </si>
   <si>
@@ -196,9 +167,6 @@
     <t>F.S.</t>
   </si>
   <si>
-    <t xml:space="preserve">Account for </t>
-  </si>
-  <si>
     <t>Optimal Max Required Load for Washing</t>
   </si>
   <si>
@@ -208,20 +176,149 @@
     <t>Manual input sourced from parts list, experimental work, or other research</t>
   </si>
   <si>
-    <t>From known force application, and general design layout, determine loads experienced by structural members and drive system</t>
+    <t>D=2√((V/16.387)/πh)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> r = Radius of Shaft, R = Radius of Wash Chamber, t = Chamber Top travel, T = Piston travel distance, and V = Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the chamber top extends upward, it increases the volume of the chamber by the cross sectional area of the wash chamber minus the cross sectional area of the shaft multiplied by the distance traveled, represented by </t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>πr^2 T=t(πR^2-πr^2)</t>
+  </si>
+  <si>
+    <t>For const volume, volume of shaft introduced into chamber equated to required chamber top travel</t>
+  </si>
+  <si>
+    <t>t=πr^2 T/(πR^2-πr^2)</t>
+  </si>
+  <si>
+    <t>Solved for piston top travel</t>
+  </si>
+  <si>
+    <t>Simplified equation for chamber top travel for a given compression piston travel</t>
+  </si>
+  <si>
+    <t>Find allowable piston travel based upon thickness of structural members, pistons, and chamber top travel</t>
+  </si>
+  <si>
+    <t>T=H-T</t>
+  </si>
+  <si>
+    <t>Ideal max piston travel for a given height</t>
+  </si>
+  <si>
+    <t>T=H-(T+∑W)</t>
+  </si>
+  <si>
+    <t>Actual allowable piston travel</t>
+  </si>
+  <si>
+    <t>H= Max allowable height of machine, r = Radius of Shaft, R = Radius of Wash Chamber, t = Chamber Top travel, T = Piston travel distance, and W[component] = Width or height taken up by component in washing machine</t>
+  </si>
+  <si>
+    <t>T=H-(T+(r^2*T/(R^2-r^2))+∑W)</t>
+  </si>
+  <si>
+    <t>t=r^2*T/(R^2-r^2)</t>
+  </si>
+  <si>
+    <t>Allowable piston travel, solving for T</t>
+  </si>
+  <si>
+    <t>T=(H-∑W)(R^2-r^2/(2R^2-r^2))</t>
+  </si>
+  <si>
+    <t>Statics and Force Application</t>
+  </si>
+  <si>
+    <t>Structural Member Design</t>
+  </si>
+  <si>
+    <t>Design of Drive Assembly</t>
+  </si>
+  <si>
+    <t>Chamber Top</t>
+  </si>
+  <si>
+    <t>Acting Piston</t>
+  </si>
+  <si>
+    <t>Desired Minimum Force Application</t>
+  </si>
+  <si>
+    <t>Additional Force Application Capacity for Testing</t>
+  </si>
+  <si>
+    <t>Safety Factor For Force Application</t>
+  </si>
+  <si>
+    <t>Referenced from another sheet</t>
+  </si>
+  <si>
+    <t>Total Acting Force Application</t>
+  </si>
+  <si>
+    <t>Non-Principle Values used in Calculations</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Chamber and Piston Attributes</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Additional force desired to test wash process above previously tested limits</t>
+  </si>
+  <si>
+    <t>Ratio of additional force to accepted value added to total to account for error in picking force application (Would rather overbuild than underbuild)</t>
+  </si>
+  <si>
+    <t>Pressure of 1 ATM</t>
+  </si>
+  <si>
+    <t>Account for error in structural design and keep members away from yield point for repeated loading</t>
+  </si>
+  <si>
+    <t>Purpose of Finding Value</t>
+  </si>
+  <si>
+    <t>Reasonable chamber diameter, but could be picked in a more informed manner. All data pertaining to the wash viability was done using 4" PVC Pipe, so 4" used for design</t>
+  </si>
+  <si>
+    <t>Size Motor for Drive Assembly</t>
+  </si>
+  <si>
+    <t>Electronics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -262,7 +359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -270,17 +367,169 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -303,15 +552,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>1757363</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2167255</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>71623</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -341,8 +590,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2000250" y="10944225"/>
-          <a:ext cx="2110105" cy="2266950"/>
+          <a:off x="3700463" y="10806111"/>
+          <a:ext cx="4167188" cy="4476937"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -617,91 +866,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D14:H58"/>
+  <dimension ref="D10:N50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="33.19921875" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.53125" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="21.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D16">
+    <row r="10" spans="4:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="11" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="D13" s="1"/>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="11">
         <v>1</v>
       </c>
+      <c r="K13" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="D14" s="2"/>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="11">
+        <v>2</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="D15" s="3"/>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="11">
+        <v>3</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="D16" s="4"/>
       <c r="E16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D17">
-        <v>2</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="J16" s="11">
+        <v>4</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="4:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D17" s="5"/>
       <c r="E17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="J17" s="13">
         <v>5</v>
       </c>
-      <c r="E20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.45">
       <c r="D24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:14" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
         <v>0</v>
       </c>
@@ -709,100 +1020,100 @@
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E28" s="4">
-        <f>'Statics and Force Application'!D15</f>
-        <v>800</v>
+        <f>'Statics and Force Application'!D24</f>
+        <v>880.00000000000011</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.45">
       <c r="D29" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E29" s="4">
         <f>E40/2</f>
         <v>8.67</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.45">
       <c r="D30" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E30" s="4">
         <f>E41/2</f>
         <v>10.55</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.45">
       <c r="D31" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E31" s="4">
         <f>E42</f>
         <v>21.45</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.45">
       <c r="D32" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D36" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D37" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H37" t="s">
         <v>3</v>
@@ -810,59 +1121,59 @@
     </row>
     <row r="38" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38">
+        <v>18</v>
+      </c>
+      <c r="E38" s="4">
         <f>PI()*(E27/2)^2</f>
         <v>12.566370614359172</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D39" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E39">
         <f>E28/E38</f>
-        <v>63.661977236758133</v>
+        <v>70.028174960433958</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D40" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E40">
         <v>17.34</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D41" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E41">
         <v>21.1</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D42" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E42">
         <v>21.45</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="4:8" x14ac:dyDescent="0.45">
@@ -873,40 +1184,40 @@
         <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H43" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D44" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E44" s="3">
         <v>600</v>
       </c>
       <c r="F44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D47" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D48" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F48" t="s">
         <v>4</v>
       </c>
       <c r="G48" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H48" t="s">
         <v>3</v>
@@ -914,59 +1225,30 @@
     </row>
     <row r="49" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E49">
         <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D55" s="2"/>
-      <c r="E55" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D56" s="3"/>
-      <c r="E56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D57" s="4"/>
-      <c r="E57" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D58" s="5"/>
-      <c r="E58" t="s">
-        <v>19</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50">
+        <v>14.7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -977,57 +1259,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72D662D-1DD5-42ED-9C8F-20E55F92E359}">
-  <dimension ref="C12:E15"/>
+  <dimension ref="C17:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="25.265625" customWidth="1"/>
+    <col min="3" max="3" width="39.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13">
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="1">
+        <f>'Foundational Information'!E44</f>
         <v>600</v>
       </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C14" t="s">
+      <c r="E21" t="s">
         <v>6</v>
       </c>
-      <c r="D14">
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="2">
         <v>200</v>
       </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <f>D13+D14</f>
-        <v>800</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="4">
+        <f>(D21+D22)*(1+D23)</f>
+        <v>880.00000000000011</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="1">
+        <f>'Foundational Information'!E38</f>
+        <v>12.566370614359172</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1036,21 +1380,114 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B30CDC-44AC-42F1-89E2-E45251F3B6EA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BD5B95-2334-4B4C-B562-C25DB0F54F68}">
-  <dimension ref="C4"/>
+  <dimension ref="C18:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="84.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C4" t="s">
-        <v>31</v>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C23" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C24" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>